--- a/tables/loan_approval_table_Accuracy_F1_Score_number_of_trees.xlsx
+++ b/tables/loan_approval_table_Accuracy_F1_Score_number_of_trees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +468,13 @@
         <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
         <v>0.95</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -482,33 +482,50 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
